--- a/report_template/all_daily_report.xlsx
+++ b/report_template/all_daily_report.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="39">
   <si>
     <t>監測日報表</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自動檢核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工註記</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,7 +214,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +248,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,9 +342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,7 +422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -581,7 +567,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -618,7 +603,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -654,7 +638,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -683,7 +666,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -745,7 +727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1004,7 +985,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1041,7 +1021,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1077,7 +1056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1106,7 +1084,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1168,7 +1145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1427,7 +1403,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1464,7 +1439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1500,7 +1474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1529,7 +1502,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1591,7 +1563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1850,7 +1821,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1887,7 +1857,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -1923,7 +1892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -1952,7 +1920,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2026,7 +1993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2285,7 +2251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2322,7 +2287,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -2358,7 +2322,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -2387,7 +2350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2449,7 +2411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2708,7 +2669,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2745,7 +2705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -2781,7 +2740,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -2810,7 +2768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2869,7 +2826,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3128,7 +3084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3165,7 +3120,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -3201,7 +3155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -3230,7 +3183,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3292,7 +3244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3551,7 +3502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3588,7 +3538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -3624,7 +3573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -3653,7 +3601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3715,7 +3662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3974,7 +3920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4011,7 +3956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -4047,7 +3991,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -4076,7 +4019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4138,7 +4080,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4397,7 +4338,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4434,7 +4374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -4470,7 +4409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -4499,7 +4437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4573,7 +4510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4832,7 +4768,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4869,7 +4804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -4905,7 +4839,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -4934,7 +4867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4996,7 +4928,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5255,7 +5186,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5292,7 +5222,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -5328,7 +5257,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -5357,7 +5285,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5416,7 +5343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5675,7 +5601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5712,7 +5637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -5748,7 +5672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -5777,7 +5700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5826,7 +5748,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5972,7 +5893,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6009,7 +5929,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -6045,7 +5964,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -6074,7 +5992,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6136,7 +6053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6395,7 +6311,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6432,7 +6347,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -6468,7 +6382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -6497,7 +6410,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6559,7 +6471,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6818,7 +6729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -6855,7 +6765,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -6891,7 +6800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -6920,7 +6828,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6982,7 +6889,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7241,7 +7147,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7278,7 +7183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -7314,7 +7218,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -7343,7 +7246,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7405,7 +7307,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7664,7 +7565,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -7701,7 +7601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -7737,7 +7636,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -7766,7 +7664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7828,7 +7725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8087,7 +7983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8124,7 +8019,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -8160,7 +8054,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -8189,7 +8082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8263,7 +8155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8522,7 +8413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8559,7 +8449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -8595,7 +8484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -8624,7 +8512,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8686,7 +8573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8945,7 +8831,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -8982,7 +8867,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -9018,7 +8902,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -9047,7 +8930,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9106,7 +8988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9365,7 +9246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9402,7 +9282,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -9438,7 +9317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -9467,7 +9345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9516,7 +9393,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9662,7 +9538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -9699,7 +9574,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -9735,7 +9609,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -9764,7 +9637,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9826,7 +9698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10085,7 +9956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10122,7 +9992,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -10158,7 +10027,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -10187,7 +10055,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10249,7 +10116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10508,7 +10374,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10545,7 +10410,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -10581,7 +10445,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -10610,7 +10473,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10672,7 +10534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10931,7 +10792,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -10968,7 +10828,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -11004,7 +10863,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -11033,7 +10891,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11095,7 +10952,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11354,7 +11210,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11391,7 +11246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -11427,7 +11281,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -11456,7 +11309,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11518,7 +11370,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11777,7 +11628,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -11814,7 +11664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -11850,7 +11699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -11879,7 +11727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11953,7 +11800,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12212,7 +12058,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -12249,7 +12094,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -12285,7 +12129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -12314,7 +12157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12376,7 +12218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12635,7 +12476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -12672,7 +12512,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -12708,7 +12547,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -12737,7 +12575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12796,7 +12633,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13055,7 +12891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -13092,7 +12927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -13128,7 +12962,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -13157,7 +12990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13206,7 +13038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13352,7 +13183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -13389,7 +13219,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -13425,7 +13254,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -13454,7 +13282,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13516,7 +13343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13775,7 +13601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -13812,7 +13637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -13848,7 +13672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -13877,7 +13700,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13939,7 +13761,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14198,7 +14019,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -14235,7 +14055,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -14271,7 +14090,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -14300,7 +14118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14362,7 +14179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14621,7 +14437,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -14658,7 +14473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -14694,7 +14508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -14723,7 +14536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14785,7 +14597,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15044,7 +14855,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -15081,7 +14891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -15117,7 +14926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -15146,7 +14954,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15220,7 +15027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15479,7 +15285,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -15516,7 +15321,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -15552,7 +15356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -15581,7 +15384,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15643,7 +15445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15902,7 +15703,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -15939,7 +15739,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -15975,7 +15774,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -16004,7 +15802,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16066,7 +15863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16325,7 +16121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -16362,7 +16157,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -16398,7 +16192,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -16427,7 +16220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16486,7 +16278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -16745,7 +16536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -16782,7 +16572,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -16818,7 +16607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -16847,7 +16635,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16896,7 +16683,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17042,7 +16828,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -17079,7 +16864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -17115,7 +16899,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -17144,7 +16927,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17206,7 +16988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17465,7 +17246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -17502,7 +17282,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -17538,7 +17317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -17567,7 +17345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17629,7 +17406,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -17888,7 +17664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -17925,7 +17700,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -17961,7 +17735,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -17990,7 +17763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18052,7 +17824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18311,7 +18082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -18348,7 +18118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -18384,7 +18153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -18413,7 +18181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18475,7 +18242,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18734,7 +18500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -18771,7 +18536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -18807,7 +18571,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -18836,7 +18599,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18910,7 +18672,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19169,7 +18930,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -19206,7 +18966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -19242,7 +19001,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -19271,7 +19029,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19333,7 +19090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19592,7 +19348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -19629,7 +19384,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -19665,7 +19419,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -19694,7 +19447,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19753,7 +19505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20012,7 +19763,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -20049,7 +19799,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -20085,7 +19834,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -20114,7 +19862,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20163,7 +19910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20309,7 +20055,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -20346,7 +20091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -20382,7 +20126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -20411,7 +20154,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20473,7 +20215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20732,7 +20473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -20769,7 +20509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -20805,7 +20544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -20834,7 +20572,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20896,7 +20633,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21155,7 +20891,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -21192,7 +20927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -21228,7 +20962,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -21257,7 +20990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21319,7 +21051,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21578,7 +21309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -21615,7 +21345,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -21651,7 +21380,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -21680,7 +21408,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21742,7 +21469,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22001,7 +21727,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -22038,7 +21763,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -22074,7 +21798,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -22103,7 +21826,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -22165,7 +21887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22424,7 +22145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -22461,7 +22181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -22497,7 +22216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -22526,7 +22244,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -22600,7 +22317,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22859,7 +22575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -22896,7 +22611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -22932,7 +22646,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -22961,7 +22674,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23023,7 +22735,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23282,7 +22993,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -23319,7 +23029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -23355,7 +23064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -23384,7 +23092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23443,7 +23150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23702,7 +23408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -23739,7 +23444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -23775,7 +23479,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -23804,7 +23507,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23853,7 +23555,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23999,7 +23700,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -24036,7 +23736,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -24072,7 +23771,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -24101,7 +23799,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24163,7 +23860,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -24422,7 +24118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -24459,7 +24154,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -24495,7 +24189,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -24524,7 +24217,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24586,7 +24278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -24845,7 +24536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -24882,7 +24572,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -24918,7 +24607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -24947,7 +24635,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25021,7 +24708,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -25280,7 +24966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -25317,7 +25002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -25353,7 +25037,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -25382,7 +25065,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25444,7 +25126,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -25703,7 +25384,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -25740,7 +25420,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -25776,7 +25455,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -25805,7 +25483,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -25867,7 +25544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -26126,7 +25802,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -26163,7 +25838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -26199,7 +25873,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -26228,7 +25901,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26302,7 +25974,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -26561,7 +26232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -26598,7 +26268,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -26634,7 +26303,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -26663,7 +26331,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26725,7 +26392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -26984,7 +26650,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -27021,7 +26686,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -27057,7 +26721,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -27086,7 +26749,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -27145,7 +26807,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -27404,7 +27065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -27441,7 +27101,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -27477,7 +27136,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -27506,7 +27164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -27555,7 +27212,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -27701,7 +27357,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -27738,7 +27393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -27774,7 +27428,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -27803,7 +27456,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -27865,7 +27517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -28124,7 +27775,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -28161,7 +27811,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -28197,7 +27846,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -28226,7 +27874,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -28288,7 +27935,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -28547,7 +28193,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -28584,7 +28229,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -28620,7 +28264,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -28649,7 +28292,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -28711,7 +28353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -28970,7 +28611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -29007,7 +28647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -29043,7 +28682,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -29072,7 +28710,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -29134,7 +28771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -29393,7 +29029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -29430,7 +29065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -29466,7 +29100,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -29495,7 +29128,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -29557,7 +29189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -29816,7 +29447,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -29853,7 +29483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -29889,7 +29518,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -29918,7 +29546,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -29992,7 +29619,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -30251,7 +29877,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -30288,7 +29913,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -30324,7 +29948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -30353,7 +29976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -30415,7 +30037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -30674,7 +30295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -30711,7 +30331,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -30747,7 +30366,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -30776,7 +30394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -30835,7 +30452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -31094,7 +30710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -31131,7 +30746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -31167,7 +30781,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -31196,7 +30809,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -31245,7 +30857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -31391,7 +31002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -31428,7 +31038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -31464,7 +31073,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -31493,7 +31101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -31555,7 +31162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -31814,7 +31420,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -31851,7 +31456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -31887,7 +31491,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -31916,7 +31519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -31978,7 +31580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -32237,7 +31838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -32274,7 +31874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -32310,7 +31909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -32339,7 +31937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -32401,7 +31998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -32660,7 +32256,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -32697,7 +32292,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -32733,7 +32327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -32762,7 +32355,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -32824,7 +32416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -33083,7 +32674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -33120,7 +32710,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -33156,7 +32745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -33185,7 +32773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -33259,7 +32846,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -33518,7 +33104,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -33555,7 +33140,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -33591,7 +33175,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -33620,7 +33203,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -33682,7 +33264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -33941,7 +33522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -33978,7 +33558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -34014,7 +33593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -34043,7 +33621,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -34102,7 +33679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -34361,7 +33937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -34398,7 +33973,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -34434,7 +34008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -34463,7 +34036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -34522,7 +34094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -34781,7 +34352,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -34818,7 +34388,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -34854,7 +34423,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -34883,7 +34451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -34932,7 +34499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -35078,7 +34644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -35115,7 +34680,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -35151,7 +34715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -35180,7 +34743,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -35242,7 +34804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -35501,7 +35062,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -35538,7 +35098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -35574,7 +35133,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -35603,7 +35161,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -35665,7 +35222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -35924,7 +35480,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -35961,7 +35516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -35997,7 +35551,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -36026,7 +35579,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -36088,7 +35640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -36347,7 +35898,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -36384,7 +35934,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -36420,7 +35969,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -36449,7 +35997,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -36511,7 +36058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -36770,7 +36316,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -36807,7 +36352,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -36843,7 +36387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -36872,7 +36415,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -36946,7 +36488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -37205,7 +36746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -37242,7 +36782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -37278,7 +36817,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -37307,7 +36845,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -37369,7 +36906,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -37628,7 +37164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -37665,7 +37200,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -37701,7 +37235,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -37730,7 +37263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -37789,7 +37321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -38048,7 +37579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -38085,7 +37615,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -38121,7 +37650,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -38150,7 +37678,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -38199,7 +37726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -38345,7 +37871,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -38382,7 +37907,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -38418,7 +37942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -38447,7 +37970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -38496,7 +38018,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -38642,7 +38163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -38679,7 +38199,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -38715,7 +38234,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -38744,7 +38262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -38806,7 +38323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -39065,7 +38581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -39102,7 +38617,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -39138,7 +38652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -39167,7 +38680,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -39229,7 +38741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -39488,7 +38999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -39525,7 +39035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -39561,7 +39070,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -39590,7 +39098,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -39652,7 +39159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -39911,7 +39417,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -39948,7 +39453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -39984,7 +39488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -40013,7 +39516,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -40075,7 +39577,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -40334,7 +39835,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -40371,7 +39871,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -40407,7 +39906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -40436,7 +39934,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -40510,7 +40007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -40769,7 +40265,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -40806,7 +40301,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -40842,7 +40336,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -40871,7 +40364,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -40933,7 +40425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -41192,7 +40683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -41229,7 +40719,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -41265,7 +40754,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -41294,7 +40782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -41353,7 +40840,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -41612,7 +41098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -41649,7 +41134,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -41685,7 +41169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -41714,7 +41197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -41763,7 +41245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -41909,7 +41390,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -41946,7 +41426,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -41982,7 +41461,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -42011,7 +41489,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -42073,7 +41550,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -42332,7 +41808,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -42369,7 +41844,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -42405,7 +41879,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -42434,7 +41907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -42496,7 +41968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -42755,7 +42226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -42792,7 +42262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ ;[Red]\-0.00\ " sourceLinked="1"/>
@@ -42828,7 +42297,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="##0" sourceLinked="0"/>
@@ -42857,7 +42325,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -46539,7 +46006,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -46551,29 +46018,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -46585,29 +46052,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -46619,8 +46086,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -46639,14 +46106,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -46655,7 +46120,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -46689,10 +46153,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -46701,7 +46165,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -48262,29 +47726,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -48296,27 +47760,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -48328,27 +47792,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -48360,27 +47824,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -48392,27 +47856,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -48430,7 +47894,7 @@
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -48446,7 +47910,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -48458,29 +47922,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -48492,29 +47956,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -48526,8 +47990,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -48546,14 +48010,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -48562,7 +48024,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -48596,10 +48057,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -48608,7 +48069,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -50169,29 +49630,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -50203,27 +49664,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -50235,27 +49696,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -50267,27 +49728,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -50299,27 +49760,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -50332,13 +49793,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -50353,7 +49814,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -50365,29 +49826,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -50399,29 +49860,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -50433,8 +49894,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -50453,14 +49914,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -50469,7 +49928,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -50503,10 +49961,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -50515,7 +49973,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -52076,29 +51534,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -52110,27 +51568,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -52142,27 +51600,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -52174,27 +51632,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -52206,27 +51664,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -52239,13 +51697,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -52260,7 +51718,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -52272,29 +51730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -52306,29 +51764,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -52340,8 +51798,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -52360,14 +51818,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -52376,7 +51832,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -52410,10 +51865,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -52422,7 +51877,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -53983,29 +53438,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -54017,27 +53472,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -54049,27 +53504,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -54081,27 +53536,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -54113,27 +53568,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -54146,13 +53601,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -54167,7 +53622,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -54179,29 +53634,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -54213,29 +53668,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -54247,8 +53702,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -54267,14 +53722,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -54283,7 +53736,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -54317,10 +53769,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -54329,7 +53781,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -55890,29 +55342,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -55924,27 +55376,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -55956,27 +55408,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -55988,27 +55440,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -56020,27 +55472,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -56053,13 +55505,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -56074,7 +55526,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -56086,29 +55538,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -56120,29 +55572,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -56154,8 +55606,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -56174,14 +55626,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -56190,7 +55640,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -56224,10 +55673,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -56236,7 +55685,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -57797,29 +57246,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -57831,27 +57280,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -57863,27 +57312,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -57895,27 +57344,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -57927,27 +57376,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -57960,13 +57409,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -57981,7 +57430,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -57993,29 +57442,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -58027,29 +57476,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -58061,8 +57510,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -58081,14 +57530,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -58097,7 +57544,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -58131,10 +57577,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -58143,7 +57589,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -59704,29 +59150,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -59738,27 +59184,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -59770,27 +59216,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -59802,27 +59248,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -59834,27 +59280,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -59867,13 +59313,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -59888,7 +59334,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -59900,29 +59346,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -59934,29 +59380,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -59968,8 +59414,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -59988,14 +59434,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -60004,7 +59448,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -60038,10 +59481,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -60050,7 +59493,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -61611,29 +61054,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -61645,27 +61088,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -61677,27 +61120,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -61709,27 +61152,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -61741,27 +61184,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -61774,13 +61217,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -61795,7 +61238,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -61807,29 +61250,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -61841,29 +61284,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -61875,8 +61318,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -61895,14 +61338,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -61911,7 +61352,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -61945,10 +61385,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -61957,7 +61397,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -63518,29 +62958,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -63552,27 +62992,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -63584,27 +63024,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -63616,27 +63056,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -63648,27 +63088,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -63681,13 +63121,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -63702,7 +63142,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -63714,29 +63154,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -63748,29 +63188,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -63782,8 +63222,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -63802,14 +63242,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -63818,7 +63256,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -63852,10 +63289,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -63864,7 +63301,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -65425,29 +64862,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -65459,27 +64896,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -65491,27 +64928,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -65523,27 +64960,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -65555,27 +64992,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -65588,13 +65025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -65609,7 +65046,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -65621,29 +65058,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -65655,29 +65092,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -65689,8 +65126,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -65709,14 +65146,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -65725,7 +65160,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -65759,10 +65193,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -65771,7 +65205,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -67332,29 +66766,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -67366,27 +66800,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -67398,27 +66832,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -67430,27 +66864,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -67462,27 +66896,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -67495,13 +66929,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -67516,7 +66950,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -67528,29 +66962,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -67562,29 +66996,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -67596,8 +67030,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -67616,14 +67050,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -67632,7 +67064,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -67666,10 +67097,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -67678,7 +67109,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -69239,29 +68670,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -69273,27 +68704,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -69305,27 +68736,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -69337,27 +68768,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -69369,27 +68800,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -69402,13 +68833,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -69423,7 +68854,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -69435,29 +68866,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -69469,29 +68900,29 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -69503,8 +68934,8 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
@@ -69523,14 +68954,12 @@
       <c r="H3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -69539,7 +68968,6 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -69573,10 +69001,10 @@
         <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -69585,7 +69013,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>14</v>
@@ -71146,29 +70574,29 @@
       <c r="AD35" s="1"/>
     </row>
     <row r="36" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -71180,27 +70608,27 @@
       <c r="AD36" s="1"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -71212,27 +70640,27 @@
       <c r="AD37" s="1"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -71244,27 +70672,27 @@
       <c r="AD38" s="1"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -71276,27 +70704,27 @@
       <c r="AD39" s="1"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -71309,13 +70737,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:U40"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:U40"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
